--- a/input/block_data.xlsx
+++ b/input/block_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\PycharmProjects\2025_MAS_KSOE\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0212C25-C2FB-4ECD-9AA9-F872C2F41BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFB76ED-BDF7-4A3F-9D9F-11679B47F1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,24 +46,6 @@
     <t>Due_Date</t>
   </si>
   <si>
-    <t>H01</t>
-  </si>
-  <si>
-    <t>H02</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>J-1</t>
   </si>
   <si>
@@ -1016,6 +998,30 @@
   </si>
   <si>
     <t>J-310</t>
+  </si>
+  <si>
+    <t>Workload_H01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Workload_H02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Breadth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1392,9 +1398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N311"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1406,9 +1410,11 @@
     <col min="6" max="6" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="5.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1438,36 +1444,36 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>326</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>327</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>328</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>329</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>331</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -1502,16 +1508,16 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -1546,16 +1552,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1590,16 +1596,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1634,16 +1640,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1678,16 +1684,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1722,16 +1728,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1766,16 +1772,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1810,16 +1816,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1854,16 +1860,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1898,16 +1904,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1942,16 +1948,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -1986,16 +1992,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -2030,16 +2036,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -2074,16 +2080,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -2118,16 +2124,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -2162,16 +2168,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2">
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -2206,16 +2212,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2">
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -2250,16 +2256,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2">
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -2294,16 +2300,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2">
         <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -2338,16 +2344,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2">
         <v>20</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -2382,16 +2388,16 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2">
         <v>21</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
@@ -2426,16 +2432,16 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2">
         <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -2470,16 +2476,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B25" s="2">
         <v>23</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -2514,16 +2520,16 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2">
         <v>24</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
@@ -2558,16 +2564,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B27" s="2">
         <v>25</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
@@ -2602,16 +2608,16 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2">
         <v>26</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
@@ -2646,16 +2652,16 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2">
         <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
@@ -2690,16 +2696,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2">
         <v>28</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
@@ -2734,16 +2740,16 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2">
         <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
@@ -2778,16 +2784,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2">
         <v>30</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
@@ -2822,16 +2828,16 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2">
         <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E33" s="2">
         <v>2</v>
@@ -2866,16 +2872,16 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2">
         <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
@@ -2910,16 +2916,16 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2">
         <v>33</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E35" s="2">
         <v>3</v>
@@ -2954,16 +2960,16 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2">
         <v>34</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E36" s="2">
         <v>3</v>
@@ -2998,16 +3004,16 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2">
         <v>35</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E37" s="2">
         <v>3</v>
@@ -3042,16 +3048,16 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2">
         <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E38" s="2">
         <v>3</v>
@@ -3086,16 +3092,16 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2">
         <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E39" s="2">
         <v>3</v>
@@ -3130,16 +3136,16 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2">
         <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E40" s="2">
         <v>3</v>
@@ -3174,16 +3180,16 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2">
         <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E41" s="2">
         <v>3</v>
@@ -3218,16 +3224,16 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2">
         <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E42" s="2">
         <v>3</v>
@@ -3262,16 +3268,16 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2">
         <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E43" s="2">
         <v>3</v>
@@ -3306,16 +3312,16 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2">
         <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E44" s="2">
         <v>5</v>
@@ -3350,16 +3356,16 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2">
         <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E45" s="2">
         <v>5</v>
@@ -3394,16 +3400,16 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2">
         <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E46" s="2">
         <v>5</v>
@@ -3438,16 +3444,16 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2">
         <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E47" s="2">
         <v>5</v>
@@ -3482,16 +3488,16 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2">
         <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E48" s="2">
         <v>5</v>
@@ -3526,16 +3532,16 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2">
         <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E49" s="2">
         <v>6</v>
@@ -3570,16 +3576,16 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B50" s="2">
         <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E50" s="2">
         <v>6</v>
@@ -3614,16 +3620,16 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B51" s="2">
         <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E51" s="2">
         <v>6</v>
@@ -3658,16 +3664,16 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2">
         <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E52" s="2">
         <v>6</v>
@@ -3702,16 +3708,16 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B53" s="2">
         <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E53" s="2">
         <v>6</v>
@@ -3746,16 +3752,16 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B54" s="2">
         <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E54" s="2">
         <v>6</v>
@@ -3790,16 +3796,16 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2">
         <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E55" s="2">
         <v>6</v>
@@ -3834,16 +3840,16 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B56" s="2">
         <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E56" s="2">
         <v>6</v>
@@ -3878,16 +3884,16 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B57" s="2">
         <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E57" s="2">
         <v>6</v>
@@ -3922,16 +3928,16 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B58" s="2">
         <v>56</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E58" s="2">
         <v>6</v>
@@ -3966,16 +3972,16 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B59" s="2">
         <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E59" s="2">
         <v>6</v>
@@ -4010,16 +4016,16 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2">
         <v>58</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E60" s="2">
         <v>6</v>
@@ -4054,16 +4060,16 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B61" s="2">
         <v>59</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E61" s="2">
         <v>6</v>
@@ -4098,16 +4104,16 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B62" s="2">
         <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E62" s="2">
         <v>7</v>
@@ -4142,16 +4148,16 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B63" s="2">
         <v>61</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E63" s="2">
         <v>7</v>
@@ -4186,16 +4192,16 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B64" s="2">
         <v>62</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E64" s="2">
         <v>7</v>
@@ -4230,16 +4236,16 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2">
         <v>63</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E65" s="2">
         <v>7</v>
@@ -4274,16 +4280,16 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B66" s="2">
         <v>64</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E66" s="2">
         <v>7</v>
@@ -4318,16 +4324,16 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2">
         <v>65</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E67" s="2">
         <v>7</v>
@@ -4362,16 +4368,16 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B68" s="2">
         <v>66</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E68" s="2">
         <v>7</v>
@@ -4406,16 +4412,16 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B69" s="2">
         <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E69" s="2">
         <v>7</v>
@@ -4450,16 +4456,16 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2">
         <v>68</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E70" s="2">
         <v>7</v>
@@ -4494,16 +4500,16 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B71" s="2">
         <v>69</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E71" s="2">
         <v>7</v>
@@ -4538,16 +4544,16 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2">
         <v>70</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E72" s="2">
         <v>7</v>
@@ -4582,16 +4588,16 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2">
         <v>71</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E73" s="2">
         <v>8</v>
@@ -4626,16 +4632,16 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2">
         <v>72</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E74" s="2">
         <v>8</v>
@@ -4670,16 +4676,16 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2">
         <v>73</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E75" s="2">
         <v>8</v>
@@ -4714,16 +4720,16 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2">
         <v>74</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E76" s="2">
         <v>8</v>
@@ -4758,16 +4764,16 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2">
         <v>75</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E77" s="2">
         <v>8</v>
@@ -4802,16 +4808,16 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2">
         <v>76</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E78" s="2">
         <v>8</v>
@@ -4846,16 +4852,16 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2">
         <v>77</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E79" s="2">
         <v>8</v>
@@ -4890,16 +4896,16 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2">
         <v>78</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E80" s="2">
         <v>8</v>
@@ -4934,16 +4940,16 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2">
         <v>79</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E81" s="2">
         <v>8</v>
@@ -4978,16 +4984,16 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2">
         <v>80</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E82" s="2">
         <v>8</v>
@@ -5022,16 +5028,16 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2">
         <v>81</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E83" s="2">
         <v>8</v>
@@ -5066,16 +5072,16 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2">
         <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E84" s="2">
         <v>9</v>
@@ -5110,16 +5116,16 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2">
         <v>83</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E85" s="2">
         <v>9</v>
@@ -5154,16 +5160,16 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B86" s="2">
         <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E86" s="2">
         <v>9</v>
@@ -5198,16 +5204,16 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2">
         <v>85</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E87" s="2">
         <v>9</v>
@@ -5242,16 +5248,16 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B88" s="2">
         <v>86</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E88" s="2">
         <v>9</v>
@@ -5286,16 +5292,16 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2">
         <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E89" s="2">
         <v>9</v>
@@ -5330,16 +5336,16 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2">
         <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E90" s="2">
         <v>9</v>
@@ -5374,16 +5380,16 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2">
         <v>89</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E91" s="2">
         <v>9</v>
@@ -5418,16 +5424,16 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2">
         <v>90</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E92" s="2">
         <v>9</v>
@@ -5462,16 +5468,16 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2">
         <v>91</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E93" s="2">
         <v>9</v>
@@ -5506,16 +5512,16 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2">
         <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E94" s="2">
         <v>9</v>
@@ -5550,16 +5556,16 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2">
         <v>93</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E95" s="2">
         <v>9</v>
@@ -5594,16 +5600,16 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2">
         <v>94</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E96" s="2">
         <v>10</v>
@@ -5638,16 +5644,16 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2">
         <v>95</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E97" s="2">
         <v>10</v>
@@ -5682,16 +5688,16 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2">
         <v>96</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E98" s="2">
         <v>10</v>
@@ -5726,16 +5732,16 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2">
         <v>97</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E99" s="2">
         <v>10</v>
@@ -5770,16 +5776,16 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2">
         <v>98</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E100" s="2">
         <v>10</v>
@@ -5814,16 +5820,16 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2">
         <v>99</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E101" s="2">
         <v>10</v>
@@ -5858,16 +5864,16 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B102" s="2">
         <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E102" s="2">
         <v>10</v>
@@ -5902,16 +5908,16 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B103" s="2">
         <v>101</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E103" s="2">
         <v>12</v>
@@ -5946,16 +5952,16 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B104" s="2">
         <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E104" s="2">
         <v>12</v>
@@ -5990,16 +5996,16 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B105" s="2">
         <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E105" s="2">
         <v>12</v>
@@ -6034,16 +6040,16 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B106" s="2">
         <v>104</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E106" s="2">
         <v>12</v>
@@ -6078,16 +6084,16 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B107" s="2">
         <v>105</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E107" s="2">
         <v>12</v>
@@ -6122,16 +6128,16 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B108" s="2">
         <v>106</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E108" s="2">
         <v>12</v>
@@ -6166,16 +6172,16 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B109" s="2">
         <v>107</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E109" s="2">
         <v>12</v>
@@ -6210,16 +6216,16 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B110" s="2">
         <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E110" s="2">
         <v>12</v>
@@ -6254,16 +6260,16 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B111" s="2">
         <v>109</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E111" s="2">
         <v>12</v>
@@ -6298,16 +6304,16 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B112" s="2">
         <v>110</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E112" s="2">
         <v>12</v>
@@ -6342,16 +6348,16 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B113" s="2">
         <v>111</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E113" s="2">
         <v>12</v>
@@ -6386,16 +6392,16 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B114" s="2">
         <v>112</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E114" s="2">
         <v>12</v>
@@ -6430,16 +6436,16 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B115" s="2">
         <v>113</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E115" s="2">
         <v>12</v>
@@ -6474,16 +6480,16 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B116" s="2">
         <v>114</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E116" s="2">
         <v>12</v>
@@ -6518,16 +6524,16 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B117" s="2">
         <v>115</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E117" s="2">
         <v>12</v>
@@ -6562,16 +6568,16 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B118" s="2">
         <v>116</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E118" s="2">
         <v>12</v>
@@ -6606,16 +6612,16 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B119" s="2">
         <v>117</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E119" s="2">
         <v>13</v>
@@ -6650,16 +6656,16 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B120" s="2">
         <v>118</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E120" s="2">
         <v>13</v>
@@ -6694,16 +6700,16 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B121" s="2">
         <v>119</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E121" s="2">
         <v>13</v>
@@ -6738,16 +6744,16 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B122" s="2">
         <v>120</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E122" s="2">
         <v>13</v>
@@ -6782,16 +6788,16 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B123" s="2">
         <v>121</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E123" s="2">
         <v>13</v>
@@ -6826,16 +6832,16 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B124" s="2">
         <v>122</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E124" s="2">
         <v>13</v>
@@ -6870,16 +6876,16 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B125" s="2">
         <v>123</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E125" s="2">
         <v>13</v>
@@ -6914,16 +6920,16 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B126" s="2">
         <v>124</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E126" s="2">
         <v>13</v>
@@ -6958,16 +6964,16 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B127" s="2">
         <v>125</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E127" s="2">
         <v>13</v>
@@ -7002,16 +7008,16 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B128" s="2">
         <v>126</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E128" s="2">
         <v>13</v>
@@ -7046,16 +7052,16 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B129" s="2">
         <v>127</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E129" s="2">
         <v>13</v>
@@ -7090,16 +7096,16 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B130" s="2">
         <v>128</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E130" s="2">
         <v>13</v>
@@ -7134,16 +7140,16 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B131" s="2">
         <v>129</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E131" s="2">
         <v>13</v>
@@ -7178,16 +7184,16 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B132" s="2">
         <v>130</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E132" s="2">
         <v>13</v>
@@ -7222,16 +7228,16 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B133" s="2">
         <v>131</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E133" s="2">
         <v>13</v>
@@ -7266,16 +7272,16 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B134" s="2">
         <v>132</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E134" s="2">
         <v>13</v>
@@ -7310,16 +7316,16 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B135" s="2">
         <v>133</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E135" s="2">
         <v>13</v>
@@ -7354,16 +7360,16 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B136" s="2">
         <v>134</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E136" s="2">
         <v>14</v>
@@ -7398,16 +7404,16 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B137" s="2">
         <v>135</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E137" s="2">
         <v>14</v>
@@ -7442,16 +7448,16 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B138" s="2">
         <v>136</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E138" s="2">
         <v>14</v>
@@ -7486,16 +7492,16 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B139" s="2">
         <v>137</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E139" s="2">
         <v>14</v>
@@ -7530,16 +7536,16 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B140" s="2">
         <v>138</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E140" s="2">
         <v>14</v>
@@ -7574,16 +7580,16 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B141" s="2">
         <v>139</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E141" s="2">
         <v>14</v>
@@ -7618,16 +7624,16 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B142" s="2">
         <v>140</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E142" s="2">
         <v>14</v>
@@ -7662,16 +7668,16 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B143" s="2">
         <v>141</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E143" s="2">
         <v>14</v>
@@ -7706,16 +7712,16 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B144" s="2">
         <v>142</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E144" s="2">
         <v>14</v>
@@ -7750,16 +7756,16 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B145" s="2">
         <v>143</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E145" s="2">
         <v>14</v>
@@ -7794,16 +7800,16 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B146" s="2">
         <v>144</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E146" s="2">
         <v>14</v>
@@ -7838,16 +7844,16 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B147" s="2">
         <v>145</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E147" s="2">
         <v>14</v>
@@ -7882,16 +7888,16 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B148" s="2">
         <v>146</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E148" s="2">
         <v>15</v>
@@ -7926,16 +7932,16 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B149" s="2">
         <v>147</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E149" s="2">
         <v>15</v>
@@ -7970,16 +7976,16 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B150" s="2">
         <v>148</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E150" s="2">
         <v>15</v>
@@ -8014,16 +8020,16 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B151" s="2">
         <v>149</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E151" s="2">
         <v>15</v>
@@ -8058,16 +8064,16 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B152" s="2">
         <v>150</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E152" s="2">
         <v>15</v>
@@ -8102,16 +8108,16 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B153" s="2">
         <v>151</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E153" s="2">
         <v>15</v>
@@ -8146,16 +8152,16 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B154" s="2">
         <v>152</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E154" s="2">
         <v>15</v>
@@ -8190,16 +8196,16 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B155" s="2">
         <v>153</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E155" s="2">
         <v>15</v>
@@ -8234,16 +8240,16 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B156" s="2">
         <v>154</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E156" s="2">
         <v>15</v>
@@ -8278,16 +8284,16 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B157" s="2">
         <v>155</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E157" s="2">
         <v>15</v>
@@ -8322,16 +8328,16 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B158" s="2">
         <v>156</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E158" s="2">
         <v>15</v>
@@ -8366,16 +8372,16 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B159" s="2">
         <v>157</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E159" s="2">
         <v>16</v>
@@ -8410,16 +8416,16 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B160" s="2">
         <v>158</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E160" s="2">
         <v>16</v>
@@ -8454,16 +8460,16 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B161" s="2">
         <v>159</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E161" s="2">
         <v>16</v>
@@ -8498,16 +8504,16 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B162" s="2">
         <v>160</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E162" s="2">
         <v>16</v>
@@ -8542,16 +8548,16 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B163" s="2">
         <v>161</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E163" s="2">
         <v>16</v>
@@ -8586,16 +8592,16 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B164" s="2">
         <v>162</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E164" s="2">
         <v>16</v>
@@ -8630,16 +8636,16 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B165" s="2">
         <v>163</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E165" s="2">
         <v>16</v>
@@ -8674,16 +8680,16 @@
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B166" s="2">
         <v>164</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E166" s="2">
         <v>16</v>
@@ -8718,16 +8724,16 @@
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B167" s="2">
         <v>165</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E167" s="2">
         <v>16</v>
@@ -8762,16 +8768,16 @@
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B168" s="2">
         <v>166</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E168" s="2">
         <v>16</v>
@@ -8806,16 +8812,16 @@
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B169" s="2">
         <v>167</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E169" s="2">
         <v>17</v>
@@ -8850,16 +8856,16 @@
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B170" s="2">
         <v>168</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E170" s="2">
         <v>17</v>
@@ -8894,16 +8900,16 @@
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B171" s="2">
         <v>169</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E171" s="2">
         <v>17</v>
@@ -8938,16 +8944,16 @@
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B172" s="2">
         <v>170</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E172" s="2">
         <v>17</v>
@@ -8982,16 +8988,16 @@
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B173" s="2">
         <v>171</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E173" s="2">
         <v>17</v>
@@ -9026,16 +9032,16 @@
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B174" s="2">
         <v>172</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E174" s="2">
         <v>17</v>
@@ -9070,16 +9076,16 @@
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B175" s="2">
         <v>173</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E175" s="2">
         <v>17</v>
@@ -9114,16 +9120,16 @@
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B176" s="2">
         <v>174</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E176" s="2">
         <v>19</v>
@@ -9158,16 +9164,16 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B177" s="2">
         <v>175</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E177" s="2">
         <v>19</v>
@@ -9202,16 +9208,16 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B178" s="2">
         <v>176</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E178" s="2">
         <v>19</v>
@@ -9246,16 +9252,16 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B179" s="2">
         <v>177</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E179" s="2">
         <v>19</v>
@@ -9290,16 +9296,16 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B180" s="2">
         <v>178</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E180" s="2">
         <v>19</v>
@@ -9334,16 +9340,16 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B181" s="2">
         <v>179</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E181" s="2">
         <v>19</v>
@@ -9378,16 +9384,16 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B182" s="2">
         <v>180</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E182" s="2">
         <v>19</v>
@@ -9422,16 +9428,16 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B183" s="2">
         <v>181</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E183" s="2">
         <v>19</v>
@@ -9466,16 +9472,16 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B184" s="2">
         <v>182</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E184" s="2">
         <v>19</v>
@@ -9510,16 +9516,16 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B185" s="2">
         <v>183</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E185" s="2">
         <v>19</v>
@@ -9554,16 +9560,16 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B186" s="2">
         <v>184</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E186" s="2">
         <v>19</v>
@@ -9598,16 +9604,16 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B187" s="2">
         <v>185</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E187" s="2">
         <v>19</v>
@@ -9642,16 +9648,16 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B188" s="2">
         <v>186</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E188" s="2">
         <v>19</v>
@@ -9686,16 +9692,16 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B189" s="2">
         <v>187</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E189" s="2">
         <v>19</v>
@@ -9730,16 +9736,16 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B190" s="2">
         <v>188</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E190" s="2">
         <v>19</v>
@@ -9774,16 +9780,16 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B191" s="2">
         <v>189</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E191" s="2">
         <v>20</v>
@@ -9818,16 +9824,16 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B192" s="2">
         <v>190</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E192" s="2">
         <v>20</v>
@@ -9862,16 +9868,16 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B193" s="2">
         <v>191</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E193" s="2">
         <v>20</v>
@@ -9906,16 +9912,16 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B194" s="2">
         <v>192</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E194" s="2">
         <v>20</v>
@@ -9950,16 +9956,16 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B195" s="2">
         <v>193</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E195" s="2">
         <v>20</v>
@@ -9994,16 +10000,16 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B196" s="2">
         <v>194</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E196" s="2">
         <v>20</v>
@@ -10038,16 +10044,16 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B197" s="2">
         <v>195</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E197" s="2">
         <v>20</v>
@@ -10082,16 +10088,16 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B198" s="2">
         <v>196</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E198" s="2">
         <v>20</v>
@@ -10126,16 +10132,16 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B199" s="2">
         <v>197</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E199" s="2">
         <v>20</v>
@@ -10170,16 +10176,16 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B200" s="2">
         <v>198</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E200" s="2">
         <v>20</v>
@@ -10214,16 +10220,16 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B201" s="2">
         <v>199</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E201" s="2">
         <v>20</v>
@@ -10258,16 +10264,16 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B202" s="2">
         <v>200</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E202" s="2">
         <v>20</v>
@@ -10302,16 +10308,16 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B203" s="2">
         <v>201</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E203" s="2">
         <v>20</v>
@@ -10346,16 +10352,16 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B204" s="2">
         <v>202</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E204" s="2">
         <v>20</v>
@@ -10390,16 +10396,16 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B205" s="2">
         <v>203</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E205" s="2">
         <v>20</v>
@@ -10434,16 +10440,16 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B206" s="2">
         <v>204</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E206" s="2">
         <v>20</v>
@@ -10478,16 +10484,16 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B207" s="2">
         <v>205</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E207" s="2">
         <v>21</v>
@@ -10522,16 +10528,16 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B208" s="2">
         <v>206</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E208" s="2">
         <v>21</v>
@@ -10566,16 +10572,16 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B209" s="2">
         <v>207</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E209" s="2">
         <v>21</v>
@@ -10610,16 +10616,16 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B210" s="2">
         <v>208</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E210" s="2">
         <v>21</v>
@@ -10654,16 +10660,16 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B211" s="2">
         <v>209</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E211" s="2">
         <v>21</v>
@@ -10698,16 +10704,16 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B212" s="2">
         <v>210</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E212" s="2">
         <v>21</v>
@@ -10742,16 +10748,16 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B213" s="2">
         <v>211</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E213" s="2">
         <v>21</v>
@@ -10786,16 +10792,16 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B214" s="2">
         <v>212</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E214" s="2">
         <v>21</v>
@@ -10830,16 +10836,16 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B215" s="2">
         <v>213</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E215" s="2">
         <v>21</v>
@@ -10874,16 +10880,16 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B216" s="2">
         <v>214</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E216" s="2">
         <v>21</v>
@@ -10918,16 +10924,16 @@
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B217" s="2">
         <v>215</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E217" s="2">
         <v>21</v>
@@ -10962,16 +10968,16 @@
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B218" s="2">
         <v>216</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E218" s="2">
         <v>21</v>
@@ -11006,16 +11012,16 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B219" s="2">
         <v>217</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E219" s="2">
         <v>21</v>
@@ -11050,16 +11056,16 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B220" s="2">
         <v>218</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E220" s="2">
         <v>21</v>
@@ -11094,16 +11100,16 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B221" s="2">
         <v>219</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E221" s="2">
         <v>21</v>
@@ -11138,16 +11144,16 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B222" s="2">
         <v>220</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E222" s="2">
         <v>22</v>
@@ -11182,16 +11188,16 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B223" s="2">
         <v>221</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E223" s="2">
         <v>22</v>
@@ -11226,16 +11232,16 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B224" s="2">
         <v>222</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E224" s="2">
         <v>22</v>
@@ -11270,16 +11276,16 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B225" s="2">
         <v>223</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E225" s="2">
         <v>22</v>
@@ -11314,16 +11320,16 @@
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B226" s="2">
         <v>224</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E226" s="2">
         <v>22</v>
@@ -11358,16 +11364,16 @@
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B227" s="2">
         <v>225</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E227" s="2">
         <v>22</v>
@@ -11402,16 +11408,16 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B228" s="2">
         <v>226</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E228" s="2">
         <v>22</v>
@@ -11446,16 +11452,16 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B229" s="2">
         <v>227</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E229" s="2">
         <v>22</v>
@@ -11490,16 +11496,16 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B230" s="2">
         <v>228</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E230" s="2">
         <v>22</v>
@@ -11534,16 +11540,16 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B231" s="2">
         <v>229</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E231" s="2">
         <v>22</v>
@@ -11578,16 +11584,16 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B232" s="2">
         <v>230</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E232" s="2">
         <v>22</v>
@@ -11622,16 +11628,16 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B233" s="2">
         <v>231</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E233" s="2">
         <v>22</v>
@@ -11666,16 +11672,16 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B234" s="2">
         <v>232</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E234" s="2">
         <v>22</v>
@@ -11710,16 +11716,16 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B235" s="2">
         <v>233</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E235" s="2">
         <v>22</v>
@@ -11754,16 +11760,16 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B236" s="2">
         <v>234</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E236" s="2">
         <v>22</v>
@@ -11798,16 +11804,16 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B237" s="2">
         <v>235</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E237" s="2">
         <v>23</v>
@@ -11842,16 +11848,16 @@
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B238" s="2">
         <v>236</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E238" s="2">
         <v>23</v>
@@ -11886,16 +11892,16 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B239" s="2">
         <v>237</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E239" s="2">
         <v>23</v>
@@ -11930,16 +11936,16 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B240" s="2">
         <v>238</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E240" s="2">
         <v>23</v>
@@ -11974,16 +11980,16 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B241" s="2">
         <v>239</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E241" s="2">
         <v>23</v>
@@ -12018,16 +12024,16 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B242" s="2">
         <v>240</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E242" s="2">
         <v>23</v>
@@ -12062,16 +12068,16 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B243" s="2">
         <v>241</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E243" s="2">
         <v>23</v>
@@ -12106,16 +12112,16 @@
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B244" s="2">
         <v>242</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E244" s="2">
         <v>23</v>
@@ -12150,16 +12156,16 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B245" s="2">
         <v>243</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E245" s="2">
         <v>24</v>
@@ -12194,16 +12200,16 @@
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B246" s="2">
         <v>244</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E246" s="2">
         <v>24</v>
@@ -12238,16 +12244,16 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B247" s="2">
         <v>245</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E247" s="2">
         <v>24</v>
@@ -12282,16 +12288,16 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B248" s="2">
         <v>246</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E248" s="2">
         <v>26</v>
@@ -12326,16 +12332,16 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B249" s="2">
         <v>247</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E249" s="2">
         <v>26</v>
@@ -12370,16 +12376,16 @@
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B250" s="2">
         <v>248</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E250" s="2">
         <v>26</v>
@@ -12414,16 +12420,16 @@
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B251" s="2">
         <v>249</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E251" s="2">
         <v>26</v>
@@ -12458,16 +12464,16 @@
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B252" s="2">
         <v>250</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E252" s="2">
         <v>26</v>
@@ -12502,16 +12508,16 @@
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B253" s="2">
         <v>251</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E253" s="2">
         <v>26</v>
@@ -12546,16 +12552,16 @@
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B254" s="2">
         <v>252</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E254" s="2">
         <v>26</v>
@@ -12590,16 +12596,16 @@
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B255" s="2">
         <v>253</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E255" s="2">
         <v>26</v>
@@ -12634,16 +12640,16 @@
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B256" s="2">
         <v>254</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E256" s="2">
         <v>26</v>
@@ -12678,16 +12684,16 @@
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B257" s="2">
         <v>255</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E257" s="2">
         <v>26</v>
@@ -12722,16 +12728,16 @@
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B258" s="2">
         <v>256</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E258" s="2">
         <v>26</v>
@@ -12766,16 +12772,16 @@
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B259" s="2">
         <v>257</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E259" s="2">
         <v>27</v>
@@ -12810,16 +12816,16 @@
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B260" s="2">
         <v>258</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E260" s="2">
         <v>27</v>
@@ -12854,16 +12860,16 @@
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B261" s="2">
         <v>259</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E261" s="2">
         <v>27</v>
@@ -12898,16 +12904,16 @@
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B262" s="2">
         <v>260</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E262" s="2">
         <v>27</v>
@@ -12942,16 +12948,16 @@
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B263" s="2">
         <v>261</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E263" s="2">
         <v>27</v>
@@ -12986,16 +12992,16 @@
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B264" s="2">
         <v>262</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E264" s="2">
         <v>27</v>
@@ -13030,16 +13036,16 @@
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B265" s="2">
         <v>263</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E265" s="2">
         <v>27</v>
@@ -13074,16 +13080,16 @@
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B266" s="2">
         <v>264</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E266" s="2">
         <v>27</v>
@@ -13118,16 +13124,16 @@
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B267" s="2">
         <v>265</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E267" s="2">
         <v>27</v>
@@ -13162,16 +13168,16 @@
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B268" s="2">
         <v>266</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E268" s="2">
         <v>27</v>
@@ -13206,16 +13212,16 @@
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B269" s="2">
         <v>267</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E269" s="2">
         <v>27</v>
@@ -13250,16 +13256,16 @@
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B270" s="2">
         <v>268</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E270" s="2">
         <v>27</v>
@@ -13294,16 +13300,16 @@
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B271" s="2">
         <v>269</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E271" s="2">
         <v>27</v>
@@ -13338,16 +13344,16 @@
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B272" s="2">
         <v>270</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E272" s="2">
         <v>27</v>
@@ -13382,16 +13388,16 @@
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B273" s="2">
         <v>271</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E273" s="2">
         <v>28</v>
@@ -13426,16 +13432,16 @@
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B274" s="2">
         <v>272</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E274" s="2">
         <v>28</v>
@@ -13470,16 +13476,16 @@
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B275" s="2">
         <v>273</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E275" s="2">
         <v>28</v>
@@ -13514,16 +13520,16 @@
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B276" s="2">
         <v>274</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E276" s="2">
         <v>28</v>
@@ -13558,16 +13564,16 @@
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B277" s="2">
         <v>275</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E277" s="2">
         <v>28</v>
@@ -13602,16 +13608,16 @@
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B278" s="2">
         <v>276</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E278" s="2">
         <v>28</v>
@@ -13646,16 +13652,16 @@
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B279" s="2">
         <v>277</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E279" s="2">
         <v>28</v>
@@ -13690,16 +13696,16 @@
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B280" s="2">
         <v>278</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E280" s="2">
         <v>28</v>
@@ -13734,16 +13740,16 @@
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B281" s="2">
         <v>279</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E281" s="2">
         <v>28</v>
@@ -13778,16 +13784,16 @@
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B282" s="2">
         <v>280</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E282" s="2">
         <v>28</v>
@@ -13822,16 +13828,16 @@
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B283" s="2">
         <v>281</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E283" s="2">
         <v>28</v>
@@ -13866,16 +13872,16 @@
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B284" s="2">
         <v>282</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E284" s="2">
         <v>28</v>
@@ -13910,16 +13916,16 @@
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B285" s="2">
         <v>283</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E285" s="2">
         <v>28</v>
@@ -13954,16 +13960,16 @@
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B286" s="2">
         <v>284</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E286" s="2">
         <v>29</v>
@@ -13998,16 +14004,16 @@
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B287" s="2">
         <v>285</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E287" s="2">
         <v>29</v>
@@ -14042,16 +14048,16 @@
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B288" s="2">
         <v>286</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E288" s="2">
         <v>29</v>
@@ -14086,16 +14092,16 @@
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B289" s="2">
         <v>287</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E289" s="2">
         <v>29</v>
@@ -14130,16 +14136,16 @@
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B290" s="2">
         <v>288</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E290" s="2">
         <v>29</v>
@@ -14174,16 +14180,16 @@
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B291" s="2">
         <v>289</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E291" s="2">
         <v>29</v>
@@ -14218,16 +14224,16 @@
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B292" s="2">
         <v>290</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E292" s="2">
         <v>29</v>
@@ -14262,16 +14268,16 @@
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B293" s="2">
         <v>291</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E293" s="2">
         <v>29</v>
@@ -14306,16 +14312,16 @@
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B294" s="2">
         <v>292</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E294" s="2">
         <v>29</v>
@@ -14350,16 +14356,16 @@
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B295" s="2">
         <v>293</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E295" s="2">
         <v>29</v>
@@ -14394,16 +14400,16 @@
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B296" s="2">
         <v>294</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E296" s="2">
         <v>29</v>
@@ -14438,16 +14444,16 @@
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B297" s="2">
         <v>295</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E297" s="2">
         <v>30</v>
@@ -14482,16 +14488,16 @@
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B298" s="2">
         <v>296</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E298" s="2">
         <v>30</v>
@@ -14526,16 +14532,16 @@
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B299" s="2">
         <v>297</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E299" s="2">
         <v>30</v>
@@ -14570,16 +14576,16 @@
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B300" s="2">
         <v>298</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E300" s="2">
         <v>30</v>
@@ -14614,16 +14620,16 @@
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B301" s="2">
         <v>299</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E301" s="2">
         <v>30</v>
@@ -14658,16 +14664,16 @@
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B302" s="2">
         <v>300</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E302" s="2">
         <v>30</v>
@@ -14702,16 +14708,16 @@
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B303" s="2">
         <v>301</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E303" s="2">
         <v>30</v>
@@ -14746,16 +14752,16 @@
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B304" s="2">
         <v>302</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E304" s="2">
         <v>30</v>
@@ -14790,16 +14796,16 @@
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B305" s="2">
         <v>303</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E305" s="2">
         <v>30</v>
@@ -14834,16 +14840,16 @@
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B306" s="2">
         <v>304</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E306" s="2">
         <v>30</v>
@@ -14878,16 +14884,16 @@
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B307" s="2">
         <v>305</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E307" s="2">
         <v>30</v>
@@ -14922,16 +14928,16 @@
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B308" s="2">
         <v>306</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E308" s="2">
         <v>30</v>
@@ -14966,16 +14972,16 @@
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B309" s="2">
         <v>307</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E309" s="2">
         <v>30</v>
@@ -15010,16 +15016,16 @@
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B310" s="2">
         <v>308</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E310" s="2">
         <v>30</v>
@@ -15054,16 +15060,16 @@
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B311" s="2">
         <v>309</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E311" s="2">
         <v>30</v>

--- a/input/block_data.xlsx
+++ b/input/block_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\PycharmProjects\2025_MAS_KSOE\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFB76ED-BDF7-4A3F-9D9F-11679B47F1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6AC92F-114B-40B1-AFA6-279A8715BDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="4095" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blocks" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="329">
   <si>
     <t>Block_Name</t>
   </si>
@@ -989,15 +989,6 @@
   </si>
   <si>
     <t>J-307</t>
-  </si>
-  <si>
-    <t>J-308</t>
-  </si>
-  <si>
-    <t>J-309</t>
-  </si>
-  <si>
-    <t>J-310</t>
   </si>
   <si>
     <t>Workload_H01</t>
@@ -1396,7 +1387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N311"/>
+  <dimension ref="A1:N308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1412,8 +1403,8 @@
     <col min="8" max="8" width="10.125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="15.25" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.75" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
@@ -1444,22 +1435,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -10807,31 +10798,31 @@
         <v>21</v>
       </c>
       <c r="F214" s="2">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G214" s="2">
         <v>2</v>
       </c>
       <c r="H214" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I214" s="2">
-        <v>1601</v>
+        <v>601</v>
       </c>
       <c r="J214" s="2">
-        <v>1676</v>
+        <v>923</v>
       </c>
       <c r="K214" s="2">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="L214" s="2">
-        <v>23.5</v>
+        <v>15</v>
       </c>
       <c r="M214" s="2">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="N214" s="2">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.3">
@@ -10842,7 +10833,7 @@
         <v>213</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>14</v>
@@ -10851,31 +10842,31 @@
         <v>21</v>
       </c>
       <c r="F215" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G215" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H215" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I215" s="2">
-        <v>376</v>
+        <v>51</v>
       </c>
       <c r="J215" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="K215" s="2">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="L215" s="2">
-        <v>23.5</v>
+        <v>16</v>
       </c>
       <c r="M215" s="2">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="N215" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.3">
@@ -10886,7 +10877,7 @@
         <v>214</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>14</v>
@@ -10895,31 +10886,31 @@
         <v>21</v>
       </c>
       <c r="F216" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G216" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H216" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I216" s="2">
-        <v>601</v>
+        <v>551</v>
       </c>
       <c r="J216" s="2">
-        <v>923</v>
+        <v>614</v>
       </c>
       <c r="K216" s="2">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="L216" s="2">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="M216" s="2">
-        <v>13.5</v>
+        <v>19.5</v>
       </c>
       <c r="N216" s="2">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.3">
@@ -10930,7 +10921,7 @@
         <v>215</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>14</v>
@@ -10939,31 +10930,31 @@
         <v>21</v>
       </c>
       <c r="F217" s="2">
+        <v>7</v>
+      </c>
+      <c r="G217" s="2">
+        <v>0</v>
+      </c>
+      <c r="H217" s="2">
+        <v>27</v>
+      </c>
+      <c r="I217" s="2">
+        <v>340</v>
+      </c>
+      <c r="J217" s="2">
+        <v>260</v>
+      </c>
+      <c r="K217" s="2">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2">
+        <v>8</v>
+      </c>
+      <c r="M217" s="2">
+        <v>16</v>
+      </c>
+      <c r="N217" s="2">
         <v>3</v>
-      </c>
-      <c r="G217" s="2">
-        <v>5</v>
-      </c>
-      <c r="H217" s="2">
-        <v>28</v>
-      </c>
-      <c r="I217" s="2">
-        <v>51</v>
-      </c>
-      <c r="J217" s="2">
-        <v>77</v>
-      </c>
-      <c r="K217" s="2">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2">
-        <v>16</v>
-      </c>
-      <c r="M217" s="2">
-        <v>10</v>
-      </c>
-      <c r="N217" s="2">
-        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.3">
@@ -10974,40 +10965,40 @@
         <v>216</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E218" s="2">
         <v>21</v>
       </c>
       <c r="F218" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G218" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H218" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I218" s="2">
-        <v>551</v>
+        <v>40</v>
       </c>
       <c r="J218" s="2">
-        <v>614</v>
+        <v>52</v>
       </c>
       <c r="K218" s="2">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="L218" s="2">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="M218" s="2">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="N218" s="2">
-        <v>2.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.3">
@@ -11018,40 +11009,40 @@
         <v>217</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E219" s="2">
         <v>21</v>
       </c>
       <c r="F219" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G219" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H219" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I219" s="2">
-        <v>340</v>
+        <v>612</v>
       </c>
       <c r="J219" s="2">
-        <v>260</v>
+        <v>956</v>
       </c>
       <c r="K219" s="2">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="L219" s="2">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="M219" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N219" s="2">
-        <v>3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.3">
@@ -11062,40 +11053,40 @@
         <v>218</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E220" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F220" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G220" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H220" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I220" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="J220" s="2">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="K220" s="2">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="L220" s="2">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="M220" s="2">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="N220" s="2">
-        <v>10.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.3">
@@ -11106,40 +11097,40 @@
         <v>219</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E221" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F221" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G221" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H221" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I221" s="2">
-        <v>612</v>
+        <v>69</v>
       </c>
       <c r="J221" s="2">
-        <v>956</v>
+        <v>73</v>
       </c>
       <c r="K221" s="2">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="L221" s="2">
-        <v>11.5</v>
+        <v>3.5</v>
       </c>
       <c r="M221" s="2">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="N221" s="2">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.3">
@@ -11150,7 +11141,7 @@
         <v>220</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>10</v>
@@ -11159,31 +11150,31 @@
         <v>22</v>
       </c>
       <c r="F222" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G222" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H222" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I222" s="2">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="J222" s="2">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K222" s="2">
         <v>0</v>
       </c>
       <c r="L222" s="2">
+        <v>4</v>
+      </c>
+      <c r="M222" s="2">
         <v>3.5</v>
       </c>
-      <c r="M222" s="2">
-        <v>17.5</v>
-      </c>
       <c r="N222" s="2">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.3">
@@ -11194,7 +11185,7 @@
         <v>221</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>10</v>
@@ -11212,22 +11203,22 @@
         <v>34</v>
       </c>
       <c r="I223" s="2">
-        <v>69</v>
+        <v>845</v>
       </c>
       <c r="J223" s="2">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="K223" s="2">
         <v>0</v>
       </c>
       <c r="L223" s="2">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M223" s="2">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="N223" s="2">
-        <v>3.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.3">
@@ -11238,7 +11229,7 @@
         <v>222</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>10</v>
@@ -11247,31 +11238,31 @@
         <v>22</v>
       </c>
       <c r="F224" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G224" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H224" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I224" s="2">
-        <v>30</v>
+        <v>353</v>
       </c>
       <c r="J224" s="2">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="K224" s="2">
         <v>0</v>
       </c>
       <c r="L224" s="2">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M224" s="2">
-        <v>3.5</v>
+        <v>15</v>
       </c>
       <c r="N224" s="2">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.3">
@@ -11282,40 +11273,40 @@
         <v>223</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E225" s="2">
         <v>22</v>
       </c>
       <c r="F225" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G225" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H225" s="2">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I225" s="2">
-        <v>845</v>
+        <v>285</v>
       </c>
       <c r="J225" s="2">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="K225" s="2">
         <v>0</v>
       </c>
       <c r="L225" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M225" s="2">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="N225" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.3">
@@ -11326,40 +11317,40 @@
         <v>224</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E226" s="2">
         <v>22</v>
       </c>
       <c r="F226" s="2">
+        <v>7</v>
+      </c>
+      <c r="G226" s="2">
         <v>6</v>
       </c>
-      <c r="G226" s="2">
-        <v>3</v>
-      </c>
       <c r="H226" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I226" s="2">
-        <v>353</v>
+        <v>521</v>
       </c>
       <c r="J226" s="2">
-        <v>341</v>
+        <v>575</v>
       </c>
       <c r="K226" s="2">
         <v>0</v>
       </c>
       <c r="L226" s="2">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="M226" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N226" s="2">
-        <v>7.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.3">
@@ -11370,40 +11361,40 @@
         <v>225</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E227" s="2">
         <v>22</v>
       </c>
       <c r="F227" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G227" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H227" s="2">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I227" s="2">
-        <v>285</v>
+        <v>522</v>
       </c>
       <c r="J227" s="2">
-        <v>443</v>
+        <v>575</v>
       </c>
       <c r="K227" s="2">
         <v>0</v>
       </c>
       <c r="L227" s="2">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M227" s="2">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="N227" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.3">
@@ -11426,16 +11417,16 @@
         <v>7</v>
       </c>
       <c r="G228" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H228" s="2">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I228" s="2">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="J228" s="2">
-        <v>575</v>
+        <v>614</v>
       </c>
       <c r="K228" s="2">
         <v>0</v>
@@ -11444,10 +11435,10 @@
         <v>8.5</v>
       </c>
       <c r="M228" s="2">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="N228" s="2">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.3">
@@ -11467,31 +11458,31 @@
         <v>22</v>
       </c>
       <c r="F229" s="2">
+        <v>16</v>
+      </c>
+      <c r="G229" s="2">
+        <v>0</v>
+      </c>
+      <c r="H229" s="2">
+        <v>37</v>
+      </c>
+      <c r="I229" s="2">
+        <v>1316</v>
+      </c>
+      <c r="J229" s="2">
+        <v>1612</v>
+      </c>
+      <c r="K229" s="2">
+        <v>0</v>
+      </c>
+      <c r="L229" s="2">
+        <v>22</v>
+      </c>
+      <c r="M229" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="N229" s="2">
         <v>8</v>
-      </c>
-      <c r="G229" s="2">
-        <v>5</v>
-      </c>
-      <c r="H229" s="2">
-        <v>34</v>
-      </c>
-      <c r="I229" s="2">
-        <v>522</v>
-      </c>
-      <c r="J229" s="2">
-        <v>575</v>
-      </c>
-      <c r="K229" s="2">
-        <v>0</v>
-      </c>
-      <c r="L229" s="2">
-        <v>8.5</v>
-      </c>
-      <c r="M229" s="2">
-        <v>20</v>
-      </c>
-      <c r="N229" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
@@ -11505,7 +11496,7 @@
         <v>21</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E230" s="2">
         <v>22</v>
@@ -11514,28 +11505,28 @@
         <v>7</v>
       </c>
       <c r="G230" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H230" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I230" s="2">
-        <v>551</v>
+        <v>425</v>
       </c>
       <c r="J230" s="2">
-        <v>614</v>
+        <v>521</v>
       </c>
       <c r="K230" s="2">
         <v>0</v>
       </c>
       <c r="L230" s="2">
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="M230" s="2">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="N230" s="2">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.3">
@@ -11549,37 +11540,37 @@
         <v>21</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E231" s="2">
         <v>22</v>
       </c>
       <c r="F231" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G231" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231" s="2">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I231" s="2">
-        <v>1316</v>
+        <v>425</v>
       </c>
       <c r="J231" s="2">
-        <v>1612</v>
+        <v>521</v>
       </c>
       <c r="K231" s="2">
         <v>0</v>
       </c>
       <c r="L231" s="2">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="M231" s="2">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="N231" s="2">
-        <v>8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
@@ -11590,10 +11581,10 @@
         <v>230</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E232" s="2">
         <v>22</v>
@@ -11602,28 +11593,28 @@
         <v>7</v>
       </c>
       <c r="G232" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H232" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I232" s="2">
-        <v>425</v>
+        <v>215</v>
       </c>
       <c r="J232" s="2">
-        <v>521</v>
+        <v>245</v>
       </c>
       <c r="K232" s="2">
         <v>0</v>
       </c>
       <c r="L232" s="2">
-        <v>11.5</v>
+        <v>5.5</v>
       </c>
       <c r="M232" s="2">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="N232" s="2">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.3">
@@ -11634,40 +11625,40 @@
         <v>231</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E233" s="2">
         <v>22</v>
       </c>
       <c r="F233" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G233" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H233" s="2">
         <v>30</v>
       </c>
       <c r="I233" s="2">
-        <v>425</v>
+        <v>217</v>
       </c>
       <c r="J233" s="2">
-        <v>521</v>
+        <v>247</v>
       </c>
       <c r="K233" s="2">
         <v>0</v>
       </c>
       <c r="L233" s="2">
-        <v>11.5</v>
+        <v>5.5</v>
       </c>
       <c r="M233" s="2">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="N233" s="2">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.3">
@@ -11678,40 +11669,40 @@
         <v>232</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E234" s="2">
         <v>22</v>
       </c>
       <c r="F234" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G234" s="2">
         <v>2</v>
       </c>
       <c r="H234" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I234" s="2">
-        <v>215</v>
+        <v>1680</v>
       </c>
       <c r="J234" s="2">
-        <v>245</v>
+        <v>751</v>
       </c>
       <c r="K234" s="2">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="L234" s="2">
-        <v>5.5</v>
+        <v>20.5</v>
       </c>
       <c r="M234" s="2">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="N234" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.3">
@@ -11722,40 +11713,40 @@
         <v>233</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E235" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F235" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G235" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H235" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I235" s="2">
-        <v>217</v>
+        <v>909</v>
       </c>
       <c r="J235" s="2">
-        <v>247</v>
+        <v>1031</v>
       </c>
       <c r="K235" s="2">
         <v>0</v>
       </c>
       <c r="L235" s="2">
-        <v>5.5</v>
+        <v>16</v>
       </c>
       <c r="M235" s="2">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="N235" s="2">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.3">
@@ -11766,40 +11757,40 @@
         <v>234</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E236" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F236" s="2">
         <v>10</v>
       </c>
       <c r="G236" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H236" s="2">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I236" s="2">
-        <v>1680</v>
+        <v>336</v>
       </c>
       <c r="J236" s="2">
-        <v>751</v>
+        <v>581</v>
       </c>
       <c r="K236" s="2">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="L236" s="2">
-        <v>20.5</v>
+        <v>8</v>
       </c>
       <c r="M236" s="2">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="N236" s="2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.3">
@@ -11810,40 +11801,40 @@
         <v>235</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E237" s="2">
         <v>23</v>
       </c>
       <c r="F237" s="2">
+        <v>10</v>
+      </c>
+      <c r="G237" s="2">
+        <v>9</v>
+      </c>
+      <c r="H237" s="2">
+        <v>41</v>
+      </c>
+      <c r="I237" s="2">
+        <v>357</v>
+      </c>
+      <c r="J237" s="2">
+        <v>613</v>
+      </c>
+      <c r="K237" s="2">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2">
         <v>8</v>
       </c>
-      <c r="G237" s="2">
-        <v>10</v>
-      </c>
-      <c r="H237" s="2">
-        <v>40</v>
-      </c>
-      <c r="I237" s="2">
-        <v>909</v>
-      </c>
-      <c r="J237" s="2">
-        <v>1031</v>
-      </c>
-      <c r="K237" s="2">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2">
-        <v>16</v>
-      </c>
       <c r="M237" s="2">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="N237" s="2">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
@@ -11854,7 +11845,7 @@
         <v>236</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>14</v>
@@ -11863,31 +11854,31 @@
         <v>23</v>
       </c>
       <c r="F238" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G238" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H238" s="2">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I238" s="2">
-        <v>336</v>
+        <v>790</v>
       </c>
       <c r="J238" s="2">
-        <v>581</v>
+        <v>867</v>
       </c>
       <c r="K238" s="2">
         <v>0</v>
       </c>
       <c r="L238" s="2">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="M238" s="2">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="N238" s="2">
-        <v>5.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.3">
@@ -11898,7 +11889,7 @@
         <v>237</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>14</v>
@@ -11907,31 +11898,31 @@
         <v>23</v>
       </c>
       <c r="F239" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G239" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H239" s="2">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I239" s="2">
-        <v>357</v>
+        <v>464</v>
       </c>
       <c r="J239" s="2">
-        <v>613</v>
+        <v>513</v>
       </c>
       <c r="K239" s="2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="L239" s="2">
         <v>8</v>
       </c>
       <c r="M239" s="2">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="N239" s="2">
-        <v>5.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.3">
@@ -11951,31 +11942,31 @@
         <v>23</v>
       </c>
       <c r="F240" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G240" s="2">
         <v>2</v>
       </c>
       <c r="H240" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I240" s="2">
-        <v>1500</v>
+        <v>441</v>
       </c>
       <c r="J240" s="2">
-        <v>1576</v>
+        <v>490</v>
       </c>
       <c r="K240" s="2">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="L240" s="2">
-        <v>23.5</v>
+        <v>8</v>
       </c>
       <c r="M240" s="2">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="N240" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
@@ -11986,7 +11977,7 @@
         <v>239</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>14</v>
@@ -11995,31 +11986,31 @@
         <v>23</v>
       </c>
       <c r="F241" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G241" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H241" s="2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I241" s="2">
-        <v>790</v>
+        <v>1536</v>
       </c>
       <c r="J241" s="2">
-        <v>867</v>
+        <v>710</v>
       </c>
       <c r="K241" s="2">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="L241" s="2">
-        <v>11.5</v>
+        <v>20.5</v>
       </c>
       <c r="M241" s="2">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="N241" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.3">
@@ -12030,40 +12021,40 @@
         <v>240</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E242" s="2">
+        <v>24</v>
+      </c>
+      <c r="F242" s="2">
+        <v>12</v>
+      </c>
+      <c r="G242" s="2">
+        <v>2</v>
+      </c>
+      <c r="H242" s="2">
+        <v>37</v>
+      </c>
+      <c r="I242" s="2">
+        <v>1593</v>
+      </c>
+      <c r="J242" s="2">
+        <v>1032</v>
+      </c>
+      <c r="K242" s="2">
+        <v>0</v>
+      </c>
+      <c r="L242" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="M242" s="2">
         <v>23</v>
       </c>
-      <c r="F242" s="2">
-        <v>8</v>
-      </c>
-      <c r="G242" s="2">
-        <v>2</v>
-      </c>
-      <c r="H242" s="2">
-        <v>32</v>
-      </c>
-      <c r="I242" s="2">
-        <v>464</v>
-      </c>
-      <c r="J242" s="2">
-        <v>513</v>
-      </c>
-      <c r="K242" s="2">
-        <v>34</v>
-      </c>
-      <c r="L242" s="2">
-        <v>8</v>
-      </c>
-      <c r="M242" s="2">
-        <v>21</v>
-      </c>
       <c r="N242" s="2">
-        <v>3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.3">
@@ -12077,37 +12068,37 @@
         <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E243" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F243" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G243" s="2">
         <v>2</v>
       </c>
       <c r="H243" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I243" s="2">
-        <v>441</v>
+        <v>61</v>
       </c>
       <c r="J243" s="2">
-        <v>490</v>
+        <v>62</v>
       </c>
       <c r="K243" s="2">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="L243" s="2">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="M243" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N243" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
@@ -12121,10 +12112,10 @@
         <v>9</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E244" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F244" s="2">
         <v>12</v>
@@ -12133,25 +12124,25 @@
         <v>2</v>
       </c>
       <c r="H244" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I244" s="2">
-        <v>1536</v>
+        <v>981</v>
       </c>
       <c r="J244" s="2">
-        <v>710</v>
+        <v>1164</v>
       </c>
       <c r="K244" s="2">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="L244" s="2">
-        <v>20.5</v>
+        <v>14</v>
       </c>
       <c r="M244" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N244" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.3">
@@ -12168,34 +12159,34 @@
         <v>24</v>
       </c>
       <c r="E245" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F245" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G245" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H245" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I245" s="2">
-        <v>1593</v>
+        <v>791</v>
       </c>
       <c r="J245" s="2">
-        <v>1032</v>
+        <v>447</v>
       </c>
       <c r="K245" s="2">
         <v>0</v>
       </c>
       <c r="L245" s="2">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="M245" s="2">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="N245" s="2">
-        <v>6.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.3">
@@ -12206,40 +12197,40 @@
         <v>244</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E246" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F246" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G246" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H246" s="2">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I246" s="2">
-        <v>61</v>
+        <v>791</v>
       </c>
       <c r="J246" s="2">
-        <v>62</v>
+        <v>447</v>
       </c>
       <c r="K246" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L246" s="2">
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="M246" s="2">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="N246" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.3">
@@ -12253,37 +12244,37 @@
         <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E247" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F247" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G247" s="2">
         <v>2</v>
       </c>
       <c r="H247" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I247" s="2">
-        <v>981</v>
+        <v>629</v>
       </c>
       <c r="J247" s="2">
-        <v>1164</v>
+        <v>646</v>
       </c>
       <c r="K247" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="L247" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M247" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N247" s="2">
-        <v>5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.3">
@@ -12294,7 +12285,7 @@
         <v>246</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>24</v>
@@ -12306,28 +12297,28 @@
         <v>7</v>
       </c>
       <c r="G248" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H248" s="2">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I248" s="2">
-        <v>791</v>
+        <v>392</v>
       </c>
       <c r="J248" s="2">
-        <v>447</v>
+        <v>0</v>
       </c>
       <c r="K248" s="2">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="L248" s="2">
-        <v>10.5</v>
+        <v>24.5</v>
       </c>
       <c r="M248" s="2">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="N248" s="2">
-        <v>3</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.3">
@@ -12338,7 +12329,7 @@
         <v>247</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>24</v>
@@ -12347,31 +12338,31 @@
         <v>26</v>
       </c>
       <c r="F249" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G249" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H249" s="2">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I249" s="2">
-        <v>791</v>
+        <v>453</v>
       </c>
       <c r="J249" s="2">
-        <v>447</v>
+        <v>0</v>
       </c>
       <c r="K249" s="2">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="L249" s="2">
-        <v>10.5</v>
+        <v>24.5</v>
       </c>
       <c r="M249" s="2">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="N249" s="2">
-        <v>3</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.3">
@@ -12385,37 +12376,37 @@
         <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E250" s="2">
         <v>26</v>
       </c>
       <c r="F250" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G250" s="2">
         <v>2</v>
       </c>
       <c r="H250" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I250" s="2">
-        <v>629</v>
+        <v>524</v>
       </c>
       <c r="J250" s="2">
-        <v>646</v>
+        <v>809</v>
       </c>
       <c r="K250" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="L250" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M250" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N250" s="2">
-        <v>7.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.3">
@@ -12426,40 +12417,40 @@
         <v>249</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E251" s="2">
         <v>26</v>
       </c>
       <c r="F251" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G251" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H251" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I251" s="2">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="J251" s="2">
-        <v>0</v>
+        <v>581</v>
       </c>
       <c r="K251" s="2">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="L251" s="2">
-        <v>24.5</v>
+        <v>6</v>
       </c>
       <c r="M251" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N251" s="2">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.3">
@@ -12473,37 +12464,37 @@
         <v>9</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E252" s="2">
         <v>26</v>
       </c>
       <c r="F252" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G252" s="2">
         <v>2</v>
       </c>
       <c r="H252" s="2">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I252" s="2">
-        <v>453</v>
+        <v>982</v>
       </c>
       <c r="J252" s="2">
-        <v>0</v>
+        <v>1165</v>
       </c>
       <c r="K252" s="2">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L252" s="2">
-        <v>24.5</v>
+        <v>14</v>
       </c>
       <c r="M252" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N252" s="2">
-        <v>9.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.3">
@@ -12514,40 +12505,40 @@
         <v>251</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E253" s="2">
         <v>26</v>
       </c>
       <c r="F253" s="2">
+        <v>7</v>
+      </c>
+      <c r="G253" s="2">
         <v>6</v>
       </c>
-      <c r="G253" s="2">
-        <v>2</v>
-      </c>
       <c r="H253" s="2">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I253" s="2">
-        <v>524</v>
+        <v>224</v>
       </c>
       <c r="J253" s="2">
-        <v>809</v>
+        <v>225</v>
       </c>
       <c r="K253" s="2">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="L253" s="2">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="M253" s="2">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="N253" s="2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.3">
@@ -12561,37 +12552,37 @@
         <v>13</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E254" s="2">
         <v>26</v>
       </c>
       <c r="F254" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G254" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H254" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I254" s="2">
-        <v>349</v>
+        <v>232</v>
       </c>
       <c r="J254" s="2">
-        <v>581</v>
+        <v>229</v>
       </c>
       <c r="K254" s="2">
         <v>0</v>
       </c>
       <c r="L254" s="2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M254" s="2">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="N254" s="2">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.3">
@@ -12605,37 +12596,37 @@
         <v>9</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E255" s="2">
         <v>26</v>
       </c>
       <c r="F255" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G255" s="2">
         <v>2</v>
       </c>
       <c r="H255" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I255" s="2">
-        <v>982</v>
+        <v>673</v>
       </c>
       <c r="J255" s="2">
-        <v>1165</v>
+        <v>1190</v>
       </c>
       <c r="K255" s="2">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="L255" s="2">
         <v>14</v>
       </c>
       <c r="M255" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N255" s="2">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.3">
@@ -12652,34 +12643,34 @@
         <v>24</v>
       </c>
       <c r="E256" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F256" s="2">
+        <v>11</v>
+      </c>
+      <c r="G256" s="2">
+        <v>3</v>
+      </c>
+      <c r="H256" s="2">
+        <v>40</v>
+      </c>
+      <c r="I256" s="2">
+        <v>371</v>
+      </c>
+      <c r="J256" s="2">
+        <v>215</v>
+      </c>
+      <c r="K256" s="2">
+        <v>0</v>
+      </c>
+      <c r="L256" s="2">
         <v>7</v>
       </c>
-      <c r="G256" s="2">
-        <v>6</v>
-      </c>
-      <c r="H256" s="2">
-        <v>38</v>
-      </c>
-      <c r="I256" s="2">
-        <v>224</v>
-      </c>
-      <c r="J256" s="2">
-        <v>225</v>
-      </c>
-      <c r="K256" s="2">
-        <v>0</v>
-      </c>
-      <c r="L256" s="2">
-        <v>5.5</v>
-      </c>
       <c r="M256" s="2">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="N256" s="2">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.3">
@@ -12690,13 +12681,13 @@
         <v>255</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E257" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F257" s="2">
         <v>7</v>
@@ -12705,25 +12696,25 @@
         <v>6</v>
       </c>
       <c r="H257" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I257" s="2">
-        <v>232</v>
+        <v>850</v>
       </c>
       <c r="J257" s="2">
-        <v>229</v>
+        <v>928</v>
       </c>
       <c r="K257" s="2">
         <v>0</v>
       </c>
       <c r="L257" s="2">
-        <v>5.5</v>
+        <v>16</v>
       </c>
       <c r="M257" s="2">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="N257" s="2">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.3">
@@ -12740,34 +12731,34 @@
         <v>24</v>
       </c>
       <c r="E258" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F258" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G258" s="2">
         <v>2</v>
       </c>
       <c r="H258" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I258" s="2">
-        <v>673</v>
+        <v>318</v>
       </c>
       <c r="J258" s="2">
-        <v>1190</v>
+        <v>0</v>
       </c>
       <c r="K258" s="2">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="L258" s="2">
-        <v>14</v>
+        <v>24.5</v>
       </c>
       <c r="M258" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N258" s="2">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.3">
@@ -12778,40 +12769,40 @@
         <v>257</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E259" s="2">
         <v>27</v>
       </c>
       <c r="F259" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G259" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H259" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I259" s="2">
-        <v>371</v>
+        <v>707</v>
       </c>
       <c r="J259" s="2">
-        <v>215</v>
+        <v>1433</v>
       </c>
       <c r="K259" s="2">
         <v>0</v>
       </c>
       <c r="L259" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M259" s="2">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="N259" s="2">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.3">
@@ -12822,40 +12813,40 @@
         <v>258</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E260" s="2">
         <v>27</v>
       </c>
       <c r="F260" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G260" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H260" s="2">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I260" s="2">
-        <v>850</v>
+        <v>118</v>
       </c>
       <c r="J260" s="2">
-        <v>928</v>
+        <v>128</v>
       </c>
       <c r="K260" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L260" s="2">
-        <v>16</v>
+        <v>8.5</v>
       </c>
       <c r="M260" s="2">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="N260" s="2">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.3">
@@ -12869,37 +12860,37 @@
         <v>9</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E261" s="2">
         <v>27</v>
       </c>
       <c r="F261" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G261" s="2">
         <v>2</v>
       </c>
       <c r="H261" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I261" s="2">
-        <v>318</v>
+        <v>1065</v>
       </c>
       <c r="J261" s="2">
-        <v>0</v>
+        <v>1225</v>
       </c>
       <c r="K261" s="2">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="L261" s="2">
-        <v>24.5</v>
+        <v>14</v>
       </c>
       <c r="M261" s="2">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="N261" s="2">
-        <v>9.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.3">
@@ -12910,7 +12901,7 @@
         <v>260</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>14</v>
@@ -12919,31 +12910,31 @@
         <v>27</v>
       </c>
       <c r="F262" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G262" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H262" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I262" s="2">
-        <v>707</v>
+        <v>227</v>
       </c>
       <c r="J262" s="2">
-        <v>1433</v>
+        <v>364</v>
       </c>
       <c r="K262" s="2">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L262" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M262" s="2">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="N262" s="2">
-        <v>2.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.3">
@@ -12954,7 +12945,7 @@
         <v>261</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>14</v>
@@ -12963,31 +12954,31 @@
         <v>27</v>
       </c>
       <c r="F263" s="2">
+        <v>7</v>
+      </c>
+      <c r="G263" s="2">
+        <v>3</v>
+      </c>
+      <c r="H263" s="2">
+        <v>36</v>
+      </c>
+      <c r="I263" s="2">
+        <v>349</v>
+      </c>
+      <c r="J263" s="2">
+        <v>581</v>
+      </c>
+      <c r="K263" s="2">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2">
         <v>6</v>
       </c>
-      <c r="G263" s="2">
-        <v>2</v>
-      </c>
-      <c r="H263" s="2">
-        <v>34</v>
-      </c>
-      <c r="I263" s="2">
-        <v>118</v>
-      </c>
-      <c r="J263" s="2">
-        <v>128</v>
-      </c>
-      <c r="K263" s="2">
-        <v>29</v>
-      </c>
-      <c r="L263" s="2">
-        <v>8.5</v>
-      </c>
       <c r="M263" s="2">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="N263" s="2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.3">
@@ -12998,7 +12989,7 @@
         <v>262</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>14</v>
@@ -13010,28 +13001,28 @@
         <v>9</v>
       </c>
       <c r="G264" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H264" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I264" s="2">
-        <v>1065</v>
+        <v>288</v>
       </c>
       <c r="J264" s="2">
-        <v>1225</v>
+        <v>277</v>
       </c>
       <c r="K264" s="2">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="L264" s="2">
-        <v>14</v>
+        <v>3.5</v>
       </c>
       <c r="M264" s="2">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="N264" s="2">
-        <v>9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.3">
@@ -13042,7 +13033,7 @@
         <v>263</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>14</v>
@@ -13051,31 +13042,31 @@
         <v>27</v>
       </c>
       <c r="F265" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G265" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H265" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I265" s="2">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="J265" s="2">
-        <v>364</v>
+        <v>278</v>
       </c>
       <c r="K265" s="2">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="L265" s="2">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="M265" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N265" s="2">
-        <v>6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.3">
@@ -13086,40 +13077,40 @@
         <v>264</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E266" s="2">
         <v>27</v>
       </c>
       <c r="F266" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G266" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H266" s="2">
         <v>36</v>
       </c>
       <c r="I266" s="2">
-        <v>349</v>
+        <v>1081</v>
       </c>
       <c r="J266" s="2">
-        <v>581</v>
+        <v>1191</v>
       </c>
       <c r="K266" s="2">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="L266" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="M266" s="2">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="N266" s="2">
-        <v>2.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.3">
@@ -13130,40 +13121,40 @@
         <v>265</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E267" s="2">
         <v>27</v>
       </c>
       <c r="F267" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G267" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H267" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I267" s="2">
-        <v>288</v>
+        <v>750</v>
       </c>
       <c r="J267" s="2">
-        <v>277</v>
+        <v>601</v>
       </c>
       <c r="K267" s="2">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="L267" s="2">
-        <v>3.5</v>
+        <v>21.5</v>
       </c>
       <c r="M267" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N267" s="2">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.3">
@@ -13174,40 +13165,40 @@
         <v>266</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E268" s="2">
         <v>27</v>
       </c>
       <c r="F268" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G268" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H268" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I268" s="2">
-        <v>289</v>
+        <v>650</v>
       </c>
       <c r="J268" s="2">
-        <v>278</v>
+        <v>694</v>
       </c>
       <c r="K268" s="2">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="L268" s="2">
-        <v>3.5</v>
+        <v>23</v>
       </c>
       <c r="M268" s="2">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="N268" s="2">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.3">
@@ -13221,7 +13212,7 @@
         <v>9</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E269" s="2">
         <v>27</v>
@@ -13236,22 +13227,22 @@
         <v>36</v>
       </c>
       <c r="I269" s="2">
-        <v>1081</v>
+        <v>653</v>
       </c>
       <c r="J269" s="2">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K269" s="2">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="L269" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M269" s="2">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="N269" s="2">
-        <v>8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.3">
@@ -13262,40 +13253,40 @@
         <v>268</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E270" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F270" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G270" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H270" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I270" s="2">
-        <v>750</v>
+        <v>1602</v>
       </c>
       <c r="J270" s="2">
-        <v>601</v>
+        <v>1063</v>
       </c>
       <c r="K270" s="2">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="L270" s="2">
-        <v>21.5</v>
+        <v>13.5</v>
       </c>
       <c r="M270" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N270" s="2">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.3">
@@ -13306,40 +13297,40 @@
         <v>269</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E271" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F271" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G271" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H271" s="2">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I271" s="2">
-        <v>650</v>
+        <v>398</v>
       </c>
       <c r="J271" s="2">
-        <v>694</v>
+        <v>402</v>
       </c>
       <c r="K271" s="2">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="L271" s="2">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="M271" s="2">
-        <v>15.5</v>
+        <v>9.5</v>
       </c>
       <c r="N271" s="2">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.3">
@@ -13356,34 +13347,34 @@
         <v>24</v>
       </c>
       <c r="E272" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F272" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G272" s="2">
         <v>2</v>
       </c>
       <c r="H272" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I272" s="2">
-        <v>653</v>
+        <v>548</v>
       </c>
       <c r="J272" s="2">
-        <v>1190</v>
+        <v>557</v>
       </c>
       <c r="K272" s="2">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="L272" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M272" s="2">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="N272" s="2">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.3">
@@ -13394,7 +13385,7 @@
         <v>271</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>24</v>
@@ -13403,31 +13394,31 @@
         <v>28</v>
       </c>
       <c r="F273" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G273" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H273" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I273" s="2">
-        <v>1602</v>
+        <v>391</v>
       </c>
       <c r="J273" s="2">
-        <v>1063</v>
+        <v>0</v>
       </c>
       <c r="K273" s="2">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="L273" s="2">
-        <v>13.5</v>
+        <v>24.5</v>
       </c>
       <c r="M273" s="2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N273" s="2">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.3">
@@ -13438,40 +13429,40 @@
         <v>272</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E274" s="2">
         <v>28</v>
       </c>
       <c r="F274" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G274" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H274" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I274" s="2">
-        <v>398</v>
+        <v>929</v>
       </c>
       <c r="J274" s="2">
-        <v>402</v>
+        <v>1042</v>
       </c>
       <c r="K274" s="2">
         <v>0</v>
       </c>
       <c r="L274" s="2">
-        <v>10.5</v>
+        <v>20.5</v>
       </c>
       <c r="M274" s="2">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="N274" s="2">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.3">
@@ -13485,7 +13476,7 @@
         <v>9</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E275" s="2">
         <v>28</v>
@@ -13500,22 +13491,22 @@
         <v>35</v>
       </c>
       <c r="I275" s="2">
-        <v>548</v>
+        <v>690</v>
       </c>
       <c r="J275" s="2">
-        <v>557</v>
+        <v>0</v>
       </c>
       <c r="K275" s="2">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="L275" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="M275" s="2">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="N275" s="2">
-        <v>8.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.3">
@@ -13529,37 +13520,37 @@
         <v>9</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E276" s="2">
         <v>28</v>
       </c>
       <c r="F276" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G276" s="2">
         <v>2</v>
       </c>
       <c r="H276" s="2">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I276" s="2">
-        <v>391</v>
+        <v>690</v>
       </c>
       <c r="J276" s="2">
         <v>0</v>
       </c>
       <c r="K276" s="2">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="L276" s="2">
-        <v>24.5</v>
+        <v>11</v>
       </c>
       <c r="M276" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N276" s="2">
-        <v>9.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.3">
@@ -13570,40 +13561,40 @@
         <v>275</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E277" s="2">
         <v>28</v>
       </c>
       <c r="F277" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G277" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H277" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I277" s="2">
-        <v>929</v>
+        <v>830</v>
       </c>
       <c r="J277" s="2">
-        <v>1042</v>
+        <v>928</v>
       </c>
       <c r="K277" s="2">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="L277" s="2">
-        <v>20.5</v>
+        <v>14</v>
       </c>
       <c r="M277" s="2">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="N277" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.3">
@@ -13614,40 +13605,40 @@
         <v>276</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E278" s="2">
         <v>28</v>
       </c>
       <c r="F278" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G278" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H278" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I278" s="2">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="J278" s="2">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="K278" s="2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="L278" s="2">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="M278" s="2">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="N278" s="2">
-        <v>3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.3">
@@ -13658,40 +13649,40 @@
         <v>277</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E279" s="2">
         <v>28</v>
       </c>
       <c r="F279" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G279" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H279" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I279" s="2">
-        <v>690</v>
+        <v>209</v>
       </c>
       <c r="J279" s="2">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="K279" s="2">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="L279" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="M279" s="2">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="N279" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.3">
@@ -13702,37 +13693,37 @@
         <v>278</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E280" s="2">
         <v>28</v>
       </c>
       <c r="F280" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G280" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H280" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I280" s="2">
-        <v>830</v>
+        <v>209</v>
       </c>
       <c r="J280" s="2">
-        <v>928</v>
+        <v>239</v>
       </c>
       <c r="K280" s="2">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="L280" s="2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="M280" s="2">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="N280" s="2">
         <v>5</v>
@@ -13746,7 +13737,7 @@
         <v>279</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>24</v>
@@ -13758,28 +13749,28 @@
         <v>7</v>
       </c>
       <c r="G281" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H281" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I281" s="2">
-        <v>666</v>
+        <v>211</v>
       </c>
       <c r="J281" s="2">
-        <v>683</v>
+        <v>212</v>
       </c>
       <c r="K281" s="2">
         <v>0</v>
       </c>
       <c r="L281" s="2">
-        <v>11.5</v>
+        <v>5.5</v>
       </c>
       <c r="M281" s="2">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="N281" s="2">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.3">
@@ -13802,28 +13793,28 @@
         <v>7</v>
       </c>
       <c r="G282" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H282" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I282" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J282" s="2">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="K282" s="2">
         <v>0</v>
       </c>
       <c r="L282" s="2">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M282" s="2">
         <v>15.5</v>
       </c>
       <c r="N282" s="2">
-        <v>5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.3">
@@ -13840,34 +13831,34 @@
         <v>24</v>
       </c>
       <c r="E283" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F283" s="2">
+        <v>6</v>
+      </c>
+      <c r="G283" s="2">
+        <v>4</v>
+      </c>
+      <c r="H283" s="2">
+        <v>38</v>
+      </c>
+      <c r="I283" s="2">
+        <v>371</v>
+      </c>
+      <c r="J283" s="2">
+        <v>215</v>
+      </c>
+      <c r="K283" s="2">
+        <v>0</v>
+      </c>
+      <c r="L283" s="2">
         <v>7</v>
       </c>
-      <c r="G283" s="2">
-        <v>8</v>
-      </c>
-      <c r="H283" s="2">
-        <v>42</v>
-      </c>
-      <c r="I283" s="2">
-        <v>209</v>
-      </c>
-      <c r="J283" s="2">
-        <v>239</v>
-      </c>
-      <c r="K283" s="2">
-        <v>0</v>
-      </c>
-      <c r="L283" s="2">
-        <v>5</v>
-      </c>
       <c r="M283" s="2">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="N283" s="2">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.3">
@@ -13878,40 +13869,40 @@
         <v>282</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E284" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F284" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G284" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H284" s="2">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="I284" s="2">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="J284" s="2">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="K284" s="2">
         <v>0</v>
       </c>
       <c r="L284" s="2">
-        <v>5.5</v>
+        <v>10.5</v>
       </c>
       <c r="M284" s="2">
-        <v>15.5</v>
+        <v>6.5</v>
       </c>
       <c r="N284" s="2">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.3">
@@ -13922,40 +13913,40 @@
         <v>283</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E285" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F285" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G285" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H285" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I285" s="2">
-        <v>211</v>
+        <v>541</v>
       </c>
       <c r="J285" s="2">
-        <v>212</v>
+        <v>847</v>
       </c>
       <c r="K285" s="2">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="L285" s="2">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="M285" s="2">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="N285" s="2">
-        <v>5.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.3">
@@ -13966,7 +13957,7 @@
         <v>284</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>24</v>
@@ -13978,28 +13969,28 @@
         <v>6</v>
       </c>
       <c r="G286" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H286" s="2">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I286" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="J286" s="2">
-        <v>215</v>
+        <v>679</v>
       </c>
       <c r="K286" s="2">
         <v>0</v>
       </c>
       <c r="L286" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M286" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N286" s="2">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.3">
@@ -14010,40 +14001,40 @@
         <v>285</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E287" s="2">
         <v>29</v>
       </c>
       <c r="F287" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G287" s="2">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H287" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I287" s="2">
-        <v>234</v>
+        <v>1128</v>
       </c>
       <c r="J287" s="2">
-        <v>234</v>
+        <v>1277</v>
       </c>
       <c r="K287" s="2">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="L287" s="2">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="M287" s="2">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="N287" s="2">
-        <v>3.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.3">
@@ -14054,40 +14045,40 @@
         <v>286</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E288" s="2">
         <v>29</v>
       </c>
       <c r="F288" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G288" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H288" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I288" s="2">
-        <v>541</v>
+        <v>463</v>
       </c>
       <c r="J288" s="2">
-        <v>847</v>
+        <v>785</v>
       </c>
       <c r="K288" s="2">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="L288" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M288" s="2">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
       <c r="N288" s="2">
-        <v>9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.3">
@@ -14098,40 +14089,40 @@
         <v>287</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E289" s="2">
         <v>29</v>
       </c>
       <c r="F289" s="2">
+        <v>7</v>
+      </c>
+      <c r="G289" s="2">
+        <v>0</v>
+      </c>
+      <c r="H289" s="2">
+        <v>35</v>
+      </c>
+      <c r="I289" s="2">
+        <v>439</v>
+      </c>
+      <c r="J289" s="2">
+        <v>749</v>
+      </c>
+      <c r="K289" s="2">
+        <v>0</v>
+      </c>
+      <c r="L289" s="2">
         <v>6</v>
       </c>
-      <c r="G289" s="2">
-        <v>0</v>
-      </c>
-      <c r="H289" s="2">
-        <v>34</v>
-      </c>
-      <c r="I289" s="2">
-        <v>379</v>
-      </c>
-      <c r="J289" s="2">
-        <v>679</v>
-      </c>
-      <c r="K289" s="2">
-        <v>0</v>
-      </c>
-      <c r="L289" s="2">
-        <v>15</v>
-      </c>
       <c r="M289" s="2">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="N289" s="2">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.3">
@@ -14142,7 +14133,7 @@
         <v>288</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>14</v>
@@ -14151,31 +14142,31 @@
         <v>29</v>
       </c>
       <c r="F290" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G290" s="2">
         <v>2</v>
       </c>
       <c r="H290" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I290" s="2">
-        <v>1128</v>
+        <v>334</v>
       </c>
       <c r="J290" s="2">
-        <v>1277</v>
+        <v>543</v>
       </c>
       <c r="K290" s="2">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="L290" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M290" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N290" s="2">
-        <v>9</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.3">
@@ -14186,7 +14177,7 @@
         <v>289</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>14</v>
@@ -14195,19 +14186,19 @@
         <v>29</v>
       </c>
       <c r="F291" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G291" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H291" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I291" s="2">
-        <v>463</v>
+        <v>334</v>
       </c>
       <c r="J291" s="2">
-        <v>785</v>
+        <v>543</v>
       </c>
       <c r="K291" s="2">
         <v>0</v>
@@ -14216,7 +14207,7 @@
         <v>6</v>
       </c>
       <c r="M291" s="2">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="N291" s="2">
         <v>2.5</v>
@@ -14230,40 +14221,40 @@
         <v>290</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E292" s="2">
         <v>29</v>
       </c>
       <c r="F292" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G292" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H292" s="2">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I292" s="2">
-        <v>439</v>
+        <v>830</v>
       </c>
       <c r="J292" s="2">
-        <v>749</v>
+        <v>928</v>
       </c>
       <c r="K292" s="2">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="L292" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="M292" s="2">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="N292" s="2">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.3">
@@ -14274,40 +14265,40 @@
         <v>291</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E293" s="2">
         <v>29</v>
       </c>
       <c r="F293" s="2">
+        <v>11</v>
+      </c>
+      <c r="G293" s="2">
+        <v>2</v>
+      </c>
+      <c r="H293" s="2">
+        <v>41</v>
+      </c>
+      <c r="I293" s="2">
+        <v>1081</v>
+      </c>
+      <c r="J293" s="2">
+        <v>1191</v>
+      </c>
+      <c r="K293" s="2">
+        <v>174</v>
+      </c>
+      <c r="L293" s="2">
+        <v>17</v>
+      </c>
+      <c r="M293" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="N293" s="2">
         <v>8</v>
-      </c>
-      <c r="G293" s="2">
-        <v>2</v>
-      </c>
-      <c r="H293" s="2">
-        <v>38</v>
-      </c>
-      <c r="I293" s="2">
-        <v>334</v>
-      </c>
-      <c r="J293" s="2">
-        <v>543</v>
-      </c>
-      <c r="K293" s="2">
-        <v>0</v>
-      </c>
-      <c r="L293" s="2">
-        <v>6</v>
-      </c>
-      <c r="M293" s="2">
-        <v>15</v>
-      </c>
-      <c r="N293" s="2">
-        <v>2.5</v>
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.3">
@@ -14318,40 +14309,40 @@
         <v>292</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E294" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F294" s="2">
+        <v>5</v>
+      </c>
+      <c r="G294" s="2">
         <v>8</v>
       </c>
-      <c r="G294" s="2">
-        <v>2</v>
-      </c>
       <c r="H294" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I294" s="2">
-        <v>334</v>
+        <v>122</v>
       </c>
       <c r="J294" s="2">
-        <v>543</v>
+        <v>0</v>
       </c>
       <c r="K294" s="2">
         <v>0</v>
       </c>
       <c r="L294" s="2">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M294" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N294" s="2">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.3">
@@ -14365,37 +14356,37 @@
         <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E295" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F295" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G295" s="2">
         <v>2</v>
       </c>
       <c r="H295" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I295" s="2">
-        <v>830</v>
+        <v>279</v>
       </c>
       <c r="J295" s="2">
-        <v>928</v>
+        <v>304</v>
       </c>
       <c r="K295" s="2">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L295" s="2">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="M295" s="2">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="N295" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.3">
@@ -14406,40 +14397,40 @@
         <v>294</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E296" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F296" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G296" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H296" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I296" s="2">
-        <v>1081</v>
+        <v>424</v>
       </c>
       <c r="J296" s="2">
-        <v>1191</v>
+        <v>0</v>
       </c>
       <c r="K296" s="2">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="L296" s="2">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="M296" s="2">
-        <v>17.5</v>
+        <v>20.5</v>
       </c>
       <c r="N296" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.3">
@@ -14450,25 +14441,25 @@
         <v>295</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E297" s="2">
         <v>30</v>
       </c>
       <c r="F297" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G297" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H297" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I297" s="2">
-        <v>122</v>
+        <v>454</v>
       </c>
       <c r="J297" s="2">
         <v>0</v>
@@ -14477,13 +14468,13 @@
         <v>0</v>
       </c>
       <c r="L297" s="2">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="M297" s="2">
-        <v>11</v>
+        <v>20.5</v>
       </c>
       <c r="N297" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.3">
@@ -14494,40 +14485,40 @@
         <v>296</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E298" s="2">
         <v>30</v>
       </c>
       <c r="F298" s="2">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G298" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H298" s="2">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I298" s="2">
-        <v>279</v>
+        <v>488</v>
       </c>
       <c r="J298" s="2">
-        <v>304</v>
+        <v>882</v>
       </c>
       <c r="K298" s="2">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="L298" s="2">
-        <v>8.5</v>
+        <v>14.5</v>
       </c>
       <c r="M298" s="2">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="N298" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.3">
@@ -14538,40 +14529,40 @@
         <v>297</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E299" s="2">
         <v>30</v>
       </c>
       <c r="F299" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G299" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H299" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I299" s="2">
-        <v>424</v>
+        <v>1065</v>
       </c>
       <c r="J299" s="2">
-        <v>0</v>
+        <v>1225</v>
       </c>
       <c r="K299" s="2">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="L299" s="2">
-        <v>9.5</v>
+        <v>14</v>
       </c>
       <c r="M299" s="2">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
       <c r="N299" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.3">
@@ -14582,25 +14573,25 @@
         <v>298</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E300" s="2">
         <v>30</v>
       </c>
       <c r="F300" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G300" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H300" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I300" s="2">
-        <v>454</v>
+        <v>566</v>
       </c>
       <c r="J300" s="2">
         <v>0</v>
@@ -14609,10 +14600,10 @@
         <v>0</v>
       </c>
       <c r="L300" s="2">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="M300" s="2">
-        <v>20.5</v>
+        <v>19</v>
       </c>
       <c r="N300" s="2">
         <v>6</v>
@@ -14626,40 +14617,40 @@
         <v>299</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E301" s="2">
         <v>30</v>
       </c>
       <c r="F301" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G301" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H301" s="2">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I301" s="2">
-        <v>488</v>
+        <v>580</v>
       </c>
       <c r="J301" s="2">
-        <v>882</v>
+        <v>0</v>
       </c>
       <c r="K301" s="2">
         <v>0</v>
       </c>
       <c r="L301" s="2">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="M301" s="2">
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="N301" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.3">
@@ -14679,31 +14670,31 @@
         <v>30</v>
       </c>
       <c r="F302" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G302" s="2">
         <v>2</v>
       </c>
       <c r="H302" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I302" s="2">
-        <v>1065</v>
+        <v>853</v>
       </c>
       <c r="J302" s="2">
-        <v>1225</v>
+        <v>1293</v>
       </c>
       <c r="K302" s="2">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L302" s="2">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="M302" s="2">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="N302" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.3">
@@ -14714,7 +14705,7 @@
         <v>301</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>14</v>
@@ -14723,31 +14714,31 @@
         <v>30</v>
       </c>
       <c r="F303" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G303" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H303" s="2">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I303" s="2">
-        <v>566</v>
+        <v>719</v>
       </c>
       <c r="J303" s="2">
-        <v>0</v>
+        <v>1872</v>
       </c>
       <c r="K303" s="2">
         <v>0</v>
       </c>
       <c r="L303" s="2">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="M303" s="2">
         <v>19</v>
       </c>
       <c r="N303" s="2">
-        <v>6</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.3">
@@ -14758,7 +14749,7 @@
         <v>302</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>14</v>
@@ -14767,31 +14758,31 @@
         <v>30</v>
       </c>
       <c r="F304" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G304" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H304" s="2">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I304" s="2">
-        <v>580</v>
+        <v>353</v>
       </c>
       <c r="J304" s="2">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="K304" s="2">
         <v>0</v>
       </c>
       <c r="L304" s="2">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="M304" s="2">
         <v>19</v>
       </c>
       <c r="N304" s="2">
-        <v>6</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.3">
@@ -14802,7 +14793,7 @@
         <v>303</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>14</v>
@@ -14811,31 +14802,31 @@
         <v>30</v>
       </c>
       <c r="F305" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G305" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H305" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I305" s="2">
-        <v>853</v>
+        <v>709</v>
       </c>
       <c r="J305" s="2">
-        <v>1293</v>
+        <v>1819</v>
       </c>
       <c r="K305" s="2">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L305" s="2">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="M305" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N305" s="2">
-        <v>10</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.3">
@@ -14846,7 +14837,7 @@
         <v>304</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>14</v>
@@ -14855,25 +14846,25 @@
         <v>30</v>
       </c>
       <c r="F306" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G306" s="2">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H306" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I306" s="2">
-        <v>719</v>
+        <v>330</v>
       </c>
       <c r="J306" s="2">
-        <v>1872</v>
+        <v>509</v>
       </c>
       <c r="K306" s="2">
         <v>0</v>
       </c>
       <c r="L306" s="2">
-        <v>10.5</v>
+        <v>5.5</v>
       </c>
       <c r="M306" s="2">
         <v>19</v>
@@ -14890,40 +14881,40 @@
         <v>305</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E307" s="2">
         <v>30</v>
       </c>
       <c r="F307" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G307" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H307" s="2">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I307" s="2">
-        <v>353</v>
+        <v>797</v>
       </c>
       <c r="J307" s="2">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="K307" s="2">
         <v>0</v>
       </c>
       <c r="L307" s="2">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="M307" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N307" s="2">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.3">
@@ -14937,7 +14928,7 @@
         <v>21</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E308" s="2">
         <v>30</v>
@@ -14946,159 +14937,27 @@
         <v>9</v>
       </c>
       <c r="G308" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H308" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I308" s="2">
-        <v>709</v>
+        <v>797</v>
       </c>
       <c r="J308" s="2">
-        <v>1819</v>
+        <v>0</v>
       </c>
       <c r="K308" s="2">
         <v>0</v>
       </c>
       <c r="L308" s="2">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="M308" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N308" s="2">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A309" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B309" s="2">
-        <v>307</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D309" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E309" s="2">
-        <v>30</v>
-      </c>
-      <c r="F309" s="2">
-        <v>8</v>
-      </c>
-      <c r="G309" s="2">
-        <v>8</v>
-      </c>
-      <c r="H309" s="2">
-        <v>45</v>
-      </c>
-      <c r="I309" s="2">
-        <v>330</v>
-      </c>
-      <c r="J309" s="2">
-        <v>509</v>
-      </c>
-      <c r="K309" s="2">
-        <v>0</v>
-      </c>
-      <c r="L309" s="2">
-        <v>5.5</v>
-      </c>
-      <c r="M309" s="2">
-        <v>19</v>
-      </c>
-      <c r="N309" s="2">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A310" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B310" s="2">
-        <v>308</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D310" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E310" s="2">
-        <v>30</v>
-      </c>
-      <c r="F310" s="2">
-        <v>9</v>
-      </c>
-      <c r="G310" s="2">
-        <v>0</v>
-      </c>
-      <c r="H310" s="2">
-        <v>38</v>
-      </c>
-      <c r="I310" s="2">
-        <v>797</v>
-      </c>
-      <c r="J310" s="2">
-        <v>0</v>
-      </c>
-      <c r="K310" s="2">
-        <v>0</v>
-      </c>
-      <c r="L310" s="2">
-        <v>9</v>
-      </c>
-      <c r="M310" s="2">
-        <v>20</v>
-      </c>
-      <c r="N310" s="2">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A311" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B311" s="2">
-        <v>309</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E311" s="2">
-        <v>30</v>
-      </c>
-      <c r="F311" s="2">
-        <v>9</v>
-      </c>
-      <c r="G311" s="2">
-        <v>0</v>
-      </c>
-      <c r="H311" s="2">
-        <v>38</v>
-      </c>
-      <c r="I311" s="2">
-        <v>797</v>
-      </c>
-      <c r="J311" s="2">
-        <v>0</v>
-      </c>
-      <c r="K311" s="2">
-        <v>0</v>
-      </c>
-      <c r="L311" s="2">
-        <v>9</v>
-      </c>
-      <c r="M311" s="2">
-        <v>20</v>
-      </c>
-      <c r="N311" s="2">
         <v>9.5</v>
       </c>
     </row>
